--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badhonkhan481\Desktop\SQL Project\GoogleSearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badhonkhan481\Desktop\SQA Project\GoogleSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="3810" windowHeight="2830"/>
+    <workbookView xWindow="0" yWindow="3220" windowWidth="3810" windowHeight="2830"/>
   </bookViews>
   <sheets>
     <sheet name="Saturday" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="48">
   <si>
     <t>Longest Option</t>
   </si>
@@ -110,6 +110,66 @@
   </si>
   <si>
     <t>Geography</t>
+  </si>
+  <si>
+    <t>ব্যঞ্জনবর্ণহ্যালো — ওয়েব ধারাবাহিক</t>
+  </si>
+  <si>
+    <t>ঢাকা বিশ্ববিদ্যালয় ভর্তি পরীক্ষার রেজাল্ট ২০২৩</t>
+  </si>
+  <si>
+    <t>saturday weather</t>
+  </si>
+  <si>
+    <t>Babylonব্যাবিলন — ২০২২ সালের চলচ্চিত্র</t>
+  </si>
+  <si>
+    <t>School Gangচলচ্চিত্র</t>
+  </si>
+  <si>
+    <t>cricket exchangeচলচ্চিত্র</t>
+  </si>
+  <si>
+    <t>money exchangeঅভিনেত্রী</t>
+  </si>
+  <si>
+    <t>ইন্টারনেটঅভিনেত্রী</t>
+  </si>
+  <si>
+    <t>lookism season 2অভিনেত্রী</t>
+  </si>
+  <si>
+    <t>Helloহ্যালো — ওয়েব ধারাবাহিক</t>
+  </si>
+  <si>
+    <t>ঢাকার তাপমাত্রা</t>
+  </si>
+  <si>
+    <t>Saturday Afternoonশনিবার বিকেল — ২০১৯ সালের চলচ্চিত্র</t>
+  </si>
+  <si>
+    <t>baby dressশনিবার বিকেল — ২০১৯ সালের চলচ্চিত্র</t>
+  </si>
+  <si>
+    <t>school library paragraphশনিবার বিকেল — ২০১৯ সালের চলচ্চিত্র</t>
+  </si>
+  <si>
+    <t>cricket iccশনিবার বিকেল — ২০১৯ সালের চলচ্চিত্র</t>
+  </si>
+  <si>
+    <t>money receiptমমতা বন্দ্যোপাধ্যায় — পশ্চিমবঙ্গের মুখ্যমন্ত্রী</t>
+  </si>
+  <si>
+    <t>ইন্টারনেট কাকে বলেমমতা বন্দ্যোপাধ্যায় — পশ্চিমবঙ্গের মুখ্যমন্ত্রী</t>
+  </si>
+  <si>
+    <t>Lookingটিভি প্রোগ্রাম</t>
+  </si>
+  <si>
+    <t>hello meaning in bengaliকাল্পনিক চরিত্র</t>
+  </si>
+  <si>
+    <t>ব্যবস্থাপনা কিকাল্পনিক চরিত্র</t>
   </si>
 </sst>
 </file>
@@ -397,10 +457,14 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="38.453125" customWidth="1"/>
+    <col min="5" max="5" width="56.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="28" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
@@ -410,12 +474,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -425,6 +495,12 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -433,6 +509,12 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -441,6 +523,12 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -449,6 +537,12 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -457,6 +551,12 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -465,6 +565,12 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -473,6 +579,12 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
@@ -481,6 +593,12 @@
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -488,6 +606,12 @@
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badhonkhan481\Desktop\SQA Project\GoogleSearch\"/>
     </mc:Choice>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="52">
   <si>
     <t>Longest Option</t>
   </si>
@@ -170,12 +170,25 @@
   </si>
   <si>
     <t>ব্যবস্থাপনা কিকাল্পনিক চরিত্র</t>
+  </si>
+  <si>
+    <t>baby dressপাখি</t>
+  </si>
+  <si>
+    <t>school library paragraphচলচ্চিত্র</t>
+  </si>
+  <si>
+    <t>cricket iccচলচ্চিত্র</t>
+  </si>
+  <si>
+    <t>ব্যান্ডউইথ কিকাল্পনিক চরিত্র</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -462,8 +475,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="38.453125" customWidth="1"/>
-    <col min="5" max="5" width="56.54296875" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="38.453125"/>
+    <col min="5" max="5" customWidth="true" width="56.54296875"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="28" x14ac:dyDescent="0.3">
@@ -475,16 +488,16 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>38</v>
       </c>
     </row>
@@ -495,10 +508,10 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>39</v>
       </c>
     </row>
@@ -509,11 +522,11 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>40</v>
+      <c r="E5" t="s" s="0">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -523,11 +536,11 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>41</v>
+      <c r="E6" t="s" s="0">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -537,11 +550,11 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
+      <c r="E7" t="s" s="0">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -551,10 +564,10 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>43</v>
       </c>
     </row>
@@ -565,10 +578,10 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>44</v>
       </c>
     </row>
@@ -579,10 +592,10 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>45</v>
       </c>
     </row>
@@ -593,10 +606,10 @@
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>46</v>
       </c>
     </row>
@@ -607,11 +620,11 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>47</v>
+      <c r="E12" t="s" s="0">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1150,10 +1163,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.08984375" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="2" max="3" customWidth="true" width="10.08984375"/>
+    <col min="4" max="4" customWidth="true" width="8.08984375"/>
+    <col min="5" max="5" customWidth="true" width="8.26953125"/>
+    <col min="6" max="6" customWidth="true" width="5.0"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="28" x14ac:dyDescent="0.3">
